--- a/data/Szenario_Link/Power_Parameters.xlsx
+++ b/data/Szenario_Link/Power_Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suess\Desktop\Git\LEGO-Pyomo\data\Szenario_Link\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E47E6C-8366-4333-8294-E686757DE750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4864A299-5A4A-4A0A-84CC-FEE6EFA2653B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1139,8 +1139,8 @@
   </sheetPr>
   <dimension ref="B1:H85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1438,7 +1438,7 @@
         <v>98</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>99</v>
@@ -1957,6 +1957,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004934E3CB1C58BA43BC6E229E2BF20201" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e33ccc94e63df24f58cb47229b46e190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87003a75-b64f-4b22-bf19-aa30740e3d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0f7a5bb162b669de9ce8ff8278c29f" ns2:_="">
     <xsd:import namespace="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
@@ -2102,12 +2108,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
   <ds:schemaRefs>
@@ -2117,6 +2117,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2132,20 +2148,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>